--- a/pred_ohlcv/54_21/2019-10-26 GTO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 GTO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>214722.1642000001</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>197722.1642000001</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>203661.2927</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>181267.9819</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>181267.9819</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>181267.9819</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>181267.9819</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>181267.9819</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,7 +704,7 @@
         <v>135660.781</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>135660.781</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1080965.38691259</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1019779.75441259</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>756301.1723125898</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>807644.5748125898</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>787045.4358125898</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>818053.8547125899</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>818053.8547125899</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>817874.8547125899</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>469206.3775125899</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>469206.3775125899</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>471782.5926125898</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>471782.5926125898</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>471782.5926125898</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>471782.5926125898</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>471782.5926125898</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>387658.0472125898</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>496507.7822125898</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 GTO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 GTO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>214722.1642000001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>197722.1642000001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>203661.2927</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>181267.9819</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>181267.9819</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>181267.9819</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>181267.9819</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>181267.9819</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1032153.26641259</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1080965.38691259</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1065307.66331259</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1023763.10841259</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>756301.1723125898</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>807644.5748125898</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>787045.4358125898</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>818053.8547125899</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>818053.8547125899</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>817874.8547125899</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>469206.3775125899</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>471782.5926125898</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>471782.5926125898</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>471782.5926125898</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>471782.5926125898</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>471782.5926125898</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>387658.0472125898</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>496507.7822125898</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>626351.8046125898</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>595151.8046125898</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>579291.8046125898</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>273620.5067125898</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
